--- a/biology/Botanique/Figuier_des_banians/Figuier_des_banians.xlsx
+++ b/biology/Botanique/Figuier_des_banians/Figuier_des_banians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficus benghalensis
 Le figuier des banians ou figuier de l'Inde ou banian de l'Inde, est un arbre appartenant au genre Ficus de la famille des Moracées. Il doit son nom à la caste  des marchands, les banians. La graphie anglaise banyan est souvent utilisée.
@@ -514,10 +526,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre imposant pouvant atteindre 25 m de haut au feuillage persistant avec une couronne largement déployée et de nombreuses racines adventives. Celles-ci poussent des branches vers la terre et peuvent former une véritable "petite forêt".
-Les feuilles alternes et ovales, rigides et coriaces mesurent de 20 à 30 cm de long. Les fleurs sont insignifiantes. Les fruits sont des figues rouges corail globuleuse de la taille d'une cerise soit environ 2 cm de diamètre[1].
+Les feuilles alternes et ovales, rigides et coriaces mesurent de 20 à 30 cm de long. Les fleurs sont insignifiantes. Les fruits sont des figues rouges corail globuleuse de la taille d'une cerise soit environ 2 cm de diamètre.
 </t>
         </is>
       </c>
@@ -548,11 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Inde
-Le plus gros figuier des banians – le « grand banian » – se trouve au jardin botanique de Howrah, près de Calcutta en Inde. Sa circonférence est de 412 m, soit 131 m de diamètre. Son âge est estimé à 200 ans et il couvre une surface de 14 000 m2. Son énorme couronne est supportée par 1400 racines adventives[2].
-Thimmamma Marrimanu
-Autres pays
-20° 56′ 01″ S, 55° 17′ 31″ E Banian du rond-point de la glacière au Port (Ile de la Réunion), planté le 9 juin 1974. Trois pousses, ont été plantées pour se fondre ensemble au fil des ans, symbolisant le destin commun des îles de Madagascar, Réunion et Maurice.</t>
+          <t>Inde</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le plus gros figuier des banians – le « grand banian » – se trouve au jardin botanique de Howrah, près de Calcutta en Inde. Sa circonférence est de 412 m, soit 131 m de diamètre. Son âge est estimé à 200 ans et il couvre une surface de 14 000 m2. Son énorme couronne est supportée par 1400 racines adventives.
+Thimmamma Marrimanu</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Arbres notables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20° 56′ 01″ S, 55° 17′ 31″ E Banian du rond-point de la glacière au Port (Ile de la Réunion), planté le 9 juin 1974. Trois pousses, ont été plantées pour se fondre ensemble au fil des ans, symbolisant le destin commun des îles de Madagascar, Réunion et Maurice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Figuier_des_banians</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Figuier_des_banians</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Banyans
@@ -594,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Figuier_des_banians</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Figuier_des_banians</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Symboles nationaux de l'Inde</t>
         </is>
